--- a/tableur/web_base-backlog_items_1548104231.xlsx
+++ b/tableur/web_base-backlog_items_1548104231.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10123"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/vinoGroupe/tableur/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5673643-4063-C44D-8FB2-B0E108EECF36}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="38160" windowHeight="22440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
   <si>
     <t>Story ID</t>
   </si>
@@ -146,7 +152,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="##0"/>
   </numFmts>
@@ -257,7 +263,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -290,9 +296,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -325,6 +348,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -500,21 +540,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="60.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="94.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="60.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="94.1640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,7 +568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>317929</v>
       </c>
@@ -544,11 +584,8 @@
       <c r="E2" t="s">
         <v>37</v>
       </c>
-      <c r="F2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>318830</v>
       </c>
@@ -568,7 +605,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>317927</v>
       </c>
@@ -581,8 +618,11 @@
       <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>317926</v>
       </c>
@@ -596,7 +636,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>318829</v>
       </c>
@@ -609,8 +649,11 @@
       <c r="D6" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>317930</v>
       </c>
@@ -624,7 +667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>317931</v>
       </c>
@@ -638,7 +681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>317933</v>
       </c>
@@ -652,7 +695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>317934</v>
       </c>
@@ -666,7 +709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>317935</v>
       </c>
@@ -680,7 +723,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>317936</v>
       </c>
@@ -694,7 +737,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>317937</v>
       </c>
@@ -708,7 +751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>317938</v>
       </c>
@@ -722,7 +765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>317939</v>
       </c>
@@ -736,7 +779,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="160" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>317940</v>
       </c>
@@ -750,7 +793,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>317941</v>
       </c>
@@ -764,7 +807,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>317942</v>
       </c>
@@ -778,7 +821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>317943</v>
       </c>
@@ -792,7 +835,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>317945</v>
       </c>

--- a/tableur/web_base-backlog_items_1548104231.xlsx
+++ b/tableur/web_base-backlog_items_1548104231.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10123"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/vinoGroupe/tableur/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e1795854\EasyPHP-DevServer-14.1VC11\data\localweb\vinoGroupe\tableur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5673643-4063-C44D-8FB2-B0E108EECF36}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="38160" windowHeight="22440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="38160" windowHeight="22440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -152,7 +151,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="##0"/>
   </numFmts>
@@ -296,23 +295,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -348,23 +330,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -540,21 +505,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="60.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="94.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="60.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="94.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,7 +533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>317929</v>
       </c>
@@ -585,7 +550,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>318830</v>
       </c>
@@ -601,11 +566,8 @@
       <c r="E3" t="s">
         <v>38</v>
       </c>
-      <c r="F3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>317927</v>
       </c>
@@ -622,7 +584,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>317926</v>
       </c>
@@ -635,8 +597,11 @@
       <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>318829</v>
       </c>
@@ -653,7 +618,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>317930</v>
       </c>
@@ -667,7 +632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>317931</v>
       </c>
@@ -681,7 +646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>317933</v>
       </c>
@@ -695,7 +660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>317934</v>
       </c>
@@ -709,7 +674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>317935</v>
       </c>
@@ -723,7 +688,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>317936</v>
       </c>
@@ -737,7 +702,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>317937</v>
       </c>
@@ -751,7 +716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>317938</v>
       </c>
@@ -765,7 +730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>317939</v>
       </c>
@@ -779,7 +744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="160" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>317940</v>
       </c>
@@ -793,7 +758,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>317941</v>
       </c>
@@ -807,7 +772,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>317942</v>
       </c>
@@ -821,7 +786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>317943</v>
       </c>
@@ -835,7 +800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>317945</v>
       </c>

--- a/tableur/web_base-backlog_items_1548104231.xlsx
+++ b/tableur/web_base-backlog_items_1548104231.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10123"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e1795854\EasyPHP-DevServer-14.1VC11\data\localweb\vinoGroupe\tableur\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/vinoGroupe/tableur/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7D2A10-16B3-B842-A206-979A0818339D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="38160" windowHeight="22440"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="38160" windowHeight="22440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
   <si>
     <t>Story ID</t>
   </si>
@@ -151,7 +152,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="##0"/>
   </numFmts>
@@ -295,6 +296,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -330,6 +348,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -505,21 +540,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="60.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="94.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="60.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="94.1640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -533,7 +568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>317929</v>
       </c>
@@ -550,7 +585,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>318830</v>
       </c>
@@ -567,7 +602,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>317927</v>
       </c>
@@ -580,11 +615,8 @@
       <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>317926</v>
       </c>
@@ -601,7 +633,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>318829</v>
       </c>
@@ -618,7 +650,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>317930</v>
       </c>
@@ -632,7 +664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>317931</v>
       </c>
@@ -646,7 +678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>317933</v>
       </c>
@@ -660,7 +692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>317934</v>
       </c>
@@ -674,7 +706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>317935</v>
       </c>
@@ -688,7 +720,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>317936</v>
       </c>
@@ -702,7 +734,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>317937</v>
       </c>
@@ -716,7 +748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>317938</v>
       </c>
@@ -730,7 +762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>317939</v>
       </c>
@@ -744,7 +776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>317940</v>
       </c>
@@ -758,7 +790,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>317941</v>
       </c>
@@ -772,7 +804,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>317942</v>
       </c>
@@ -786,7 +818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>317943</v>
       </c>
@@ -800,7 +832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>317945</v>
       </c>

--- a/tableur/web_base-backlog_items_1548104231.xlsx
+++ b/tableur/web_base-backlog_items_1548104231.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/vinoGroupe/tableur/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/vino16628/tableur/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7D2A10-16B3-B842-A206-979A0818339D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F8F753-1CCD-C341-97BC-0CAEDCFFF484}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="38160" windowHeight="22440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="32260" windowHeight="22440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
   <si>
     <t>Story ID</t>
   </si>
@@ -140,13 +140,13 @@
     <t>C</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>J</t>
   </si>
   <si>
     <t>F</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
 </sst>
 </file>
@@ -543,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -615,6 +615,9 @@
       <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
@@ -630,7 +633,7 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -647,7 +650,7 @@
         <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="32" x14ac:dyDescent="0.2">

--- a/tableur/web_base-backlog_items_1548104231.xlsx
+++ b/tableur/web_base-backlog_items_1548104231.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/vino16628/tableur/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F8F753-1CCD-C341-97BC-0CAEDCFFF484}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B280BD1-257A-1B40-B4C6-37A57556E1E8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="32260" windowHeight="22440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
   <si>
     <t>Story ID</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>A + F</t>
   </si>
 </sst>
 </file>
@@ -544,7 +547,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -599,7 +602,7 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -850,7 +853,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D20">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D20">
     <sortCondition ref="B2:B20"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
